--- a/python/yatirim_islemleri_extracted.xlsx
+++ b/python/yatirim_islemleri_extracted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\midas-vergi\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C1B1C8-9552-4D2C-87E8-964C39E37AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6D79BB-6C76-409D-9A4D-ECB4C14545E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="8940" yWindow="2805" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -780,7 +780,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -793,7 +795,10 @@
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/python/yatirim_islemleri_extracted.xlsx
+++ b/python/yatirim_islemleri_extracted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\midas-vergi\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6D79BB-6C76-409D-9A4D-ECB4C14545E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876C54AB-0D75-4F39-966D-CACB07657108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8940" yWindow="2805" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -781,7 +781,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/python/yatirim_islemleri_extracted.xlsx
+++ b/python/yatirim_islemleri_extracted.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\midas-vergi\python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876C54AB-0D75-4F39-966D-CACB07657108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="132">
   <si>
     <t>Tarih</t>
   </si>
@@ -79,10 +73,10 @@
     <t>USD</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>9,34</t>
@@ -421,7 +415,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,7 +428,9 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -454,16 +451,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,23 +468,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="5">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -498,10 +501,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -539,69 +542,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -625,54 +630,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -682,7 +686,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -691,7 +695,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -700,7 +704,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -708,10 +712,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -740,7 +744,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -753,13 +757,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -777,31 +780,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="4" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="4" width="33.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,1319 +846,1319 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="K6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="K8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="K10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="K11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="K12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="K13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="K14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="K15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="K16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="H17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="K17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="E18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="K18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="K19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="D20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="K20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="E21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="K21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="D22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="K22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="D23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K23" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="K23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="D24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="H24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="K24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="D25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K25" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="K25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="D26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="K26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="D27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K27" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="K27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="D28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="H28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K28" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="K28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="E29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K29" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="K29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="E30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="H30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K30" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="K30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="D31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="H31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K31" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" t="s">
+      <c r="K31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="D32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="K32" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="K32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="E33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="H33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K33" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" t="s">
+      <c r="K33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="2" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>